--- a/test.xlsx
+++ b/test.xlsx
@@ -648,14 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回所有带有“的”的商品，“小”加入历史搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有带有“的”的商品，“小”未加入历史搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3在搜索结果界面搜索“小”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,6 +657,14 @@
   </si>
   <si>
     <t>1.2.2点击“价格升序”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有带有“小”的商品，“小”加入历史搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有带有“小”的商品，“小”未加入历史搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2977,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A14" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>144</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>145</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" ht="16.5">
       <c r="A16" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5">

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="登陆界面" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="349">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加对应房间，在结算界面也增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sheet_roominfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,14 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.添加修改房间空宽空高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间宽高显示0米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.添加修改客户，使用返回按钮退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.长点击商品图案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示删除商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,6 +649,774 @@
   </si>
   <si>
     <t>返回所有带有“小”的商品，“小”未加入历史搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.启用member会员账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.修改用户头像姓名手机，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.修改空姓名，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户注销，无法登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户注销无法登陆，partner会员管理处显示该用户注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，partner会员管理处显示该用户变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同member会员账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.注销账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.修改非法手机，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确手机号，无法发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1点击订单栏中图案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳至“我的订单”界面中对应栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转成功，订单显示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.11在“意向”栏中，点击“删除订单”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.12在“意向”栏中，点击“查看订单”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.14在“意向”栏中，点击“打开订单”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示删除，确定后移除意向单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示确定后，意向单删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该意向单的具体内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.13在“意向”栏中，点击“分享订单”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示分享框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该意向单的具体内容，只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转至客户结算界面，显示该客户的该结算单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.21在“待采购”栏中，点击“查看订单”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该采购单的具体内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该采购单的具体内容，只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.22在“待采购”栏中，点击“退回意向”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单退回意向单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单信息变成意向单，界面需手动刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.31在“全部”栏中，查看订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮可用，信息显示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示输入框，筛选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.启用partner合伙人账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.启用partner合伙人账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#发起采购功能暂时不能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1-1.2均同member会员账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示分享框，输入搜索但无人分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4点击右上角“搜索”图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.5点击右下角“充值”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供充值界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_showprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1切换成“零售价”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2切换成“采购价”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3切换成“不显示”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有价格显示都变成“零售价”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有价格显示都变成“采购价”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有价格显示都变成“不显示”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.长点击商品栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.点击商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格显示变成“零售价（采购价）”的显示方式，客户结算界面商品单价显示方式与其他界面商品单价显示方式不同；在“我的订单”栏中依然为“零售价”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商品界面和客户结算界面的商品修改界面显示“¥元/米”，其他区域均不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_hotsale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销列表维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1进入热销列表维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示收藏的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1长按商品，拖动，改变排序，确认退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销排序改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销排序改变成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2改变排序，直接退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销排序不改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销排序改变失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.启用partner合伙人账户，进入会员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该合伙人全部会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1点击新增，输入会员信息，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示新增会员界面，保存后新增会员成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增会员成功，新增会员界面显示不完全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1输入空姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，错误提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，提示“请填写完整的会员信息！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2输入空账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3输入空联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4输入空备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#邀请码功能无法实现测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#统计功能无法实现测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单无法成交，无法统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要软装云app实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1点击用户头像下“注销”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2点击用户头像下“启用”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该账户无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该账户无法使用，通过该账户提交的订单依然有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该账户可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1修改用户信息，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1输入空姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2输入空账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.3输入空联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4输入空备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示“请填写完整的会员信息！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，该会员个人用户界面发生改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，合伙人界面联系方式无刷新，该会员个人用户界面发生改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，合伙人界面联系方式无刷新，该会员个人用户界面发生改变，界面显示不完全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.5输入重复账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，错误提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5输入重复账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，提示“保存失败！账号已存在”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示“保存失败！账号已存在”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.启用partner合伙人账户，进入收货地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该合伙人全部收货地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1点击添加收货地址，输入地址信息，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示添加收获地址，保存后添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1输入空收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2输入空手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3输入空详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加失败，错误提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加失败，提示“收货信息不完整！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4输入非法手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2点击收货地址修改，修改信息，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存后修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1修改空收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2修改空手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3修改空详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.4修改非法手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示“收获信息不完整！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3点击收获地址右下角“删除”图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除确认提示，确认后删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，修改其他地址信息，详细地址栏显示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存后修改成功，修改时详细地址栏显示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.启用member账户，进入用户账号界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1主体颜色修改为“浅色”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2主体颜色修改为“深色”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体颜色为“浅色”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体颜色为“深色”模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品页面无改变；首页、分类、定制、客户结算界面对比度过强；用户账号界面无改变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.启用partner账户，进入用户账号界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同member账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.添加修改房间非法宽高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间宽高显示非法数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销列表中显示该商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在商品界面点击左下角“收藏”启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.在商品界面点击左下角“收藏”取消启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销列表中不显示该商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品搭配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在商品界面点击左下角“搭配”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示该商品搭配的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加对应房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加对应房间，在结算界面也增加；如果超出一个同名房间，商品购买界面也会增加房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在商品界面点击右下角“加入购物车”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入商品购物界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1点击搭配商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品存在可以跳转至商品界面，不存在则提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在提示“该商品已下架”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1输入商品尺寸、房间、面料等数据，确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户结算界面对应房间加入了该商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法确认，错误提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2输入非法商品尺寸，确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3不选定房间，确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入非法数值时提示“请输入正确的窗户宽/高度，最多精确到小数点后两位”，可以确认，数据为最后一次输入的合法数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法确认，提示“请选择房间类型”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户结算界面对应房间加入了该商品，无选中房间则会新建房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入商品购物界面，已经创建的房间会以灰底黑字显示，否则以灰底深灰字显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在商品界面点击右下角“购物车”图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入客户结算界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4长点击“颜色分类”图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该图片大图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2.副商品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能尚未完善实装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +1424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +1454,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -725,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +1515,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,13 +1824,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="26.125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="26.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
@@ -1113,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1147,7 +1920,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -1172,6 +1945,9 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
@@ -1180,6 +1956,9 @@
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
@@ -1188,6 +1967,9 @@
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
@@ -1196,6 +1978,9 @@
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
@@ -1204,6 +1989,9 @@
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
@@ -1212,6 +2000,9 @@
       <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -1263,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
@@ -1296,7 +2087,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>18</v>
@@ -1315,11 +2106,14 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>36</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1389,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1598,7 +2392,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>18</v>
@@ -1742,7 +2536,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1860,7 +2654,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1979,7 +2773,7 @@
     </row>
     <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -2142,7 +2936,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2233,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2258,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2294,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2327,10 +3121,10 @@
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -2356,15 +3150,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>84</v>
+      <c r="B13" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
@@ -2391,35 +3185,35 @@
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>103</v>
+      <c r="A18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
@@ -2437,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2446,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -2466,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2482,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2515,7 +3309,7 @@
     </row>
     <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>18</v>
@@ -2535,101 +3329,101 @@
     </row>
     <row r="32" spans="1:3" ht="16.5">
       <c r="A32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="C36" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5">
@@ -2642,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -2651,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -2671,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -2687,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
@@ -2720,7 +3514,7 @@
     </row>
     <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>18</v>
@@ -2740,173 +3534,173 @@
     </row>
     <row r="54" spans="1:3" ht="16.5">
       <c r="A54" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5">
       <c r="A55" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5">
       <c r="A56" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5">
       <c r="A57" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5">
       <c r="A58" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5">
       <c r="A59" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5">
       <c r="A60" s="5" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="16.5">
       <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:3" ht="16.5">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="3"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:3" ht="16.5">
       <c r="A64" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="16.5">
       <c r="A65" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
       <c r="A67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" ht="16.5">
       <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" ht="16.5">
       <c r="A69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
       <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" ht="16.5">
       <c r="A71" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" ht="16.5">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>18</v>
@@ -2915,52 +3709,56 @@
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5">
+      <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5">
-      <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="7" t="s">
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5">
+      <c r="A76" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5">
-      <c r="A75" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="B76" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5">
+      <c r="A77" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5">
-      <c r="A76" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="16.5">
       <c r="A78" s="5"/>
@@ -2977,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2993,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -3002,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3022,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -3038,7 +3836,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -3071,7 +3869,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -3091,18 +3889,18 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>52</v>
@@ -3113,57 +3911,57 @@
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A14" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" ht="16.5">
       <c r="A16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A18" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5">
@@ -3204,17 +4002,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
@@ -3222,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -3231,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3251,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -3267,7 +4065,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -3300,7 +4098,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -3319,39 +4117,66 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="16.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="5"/>
@@ -3359,39 +4184,1839 @@
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="16.5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="16.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="16.5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="16.5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
+      <c r="A40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5">
+      <c r="A42" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
+      <c r="A43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5">
+      <c r="A48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.5">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.5">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5">
+      <c r="A57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.5">
+      <c r="A58" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="40.5">
+      <c r="A59" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="27">
+      <c r="A60" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5">
+      <c r="A61" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" ht="16.5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" ht="16.5">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.5">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.5">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5">
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="16.5">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.5">
+      <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.5">
+      <c r="A76" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5">
+      <c r="A77" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5">
+      <c r="A78" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5">
+      <c r="A79" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5">
+      <c r="A81" s="5"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.5">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.5">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5">
+      <c r="A84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5">
+      <c r="A85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" ht="16.5">
+      <c r="A86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" ht="16.5">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5">
+      <c r="A88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.5">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="16.5">
+      <c r="A90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" ht="16.5">
+      <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="16.5">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5">
+      <c r="A93" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5">
+      <c r="A94" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5">
+      <c r="A95" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5">
+      <c r="A96" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5">
+      <c r="A97" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5">
+      <c r="A98" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5">
+      <c r="A99" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5">
+      <c r="A100" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5">
+      <c r="A101" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="33">
+      <c r="A102" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5">
+      <c r="A103" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5">
+      <c r="A104" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="33">
+      <c r="A105" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5">
+      <c r="A106" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5">
+      <c r="A107" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5">
+      <c r="A108" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" ht="16.5">
+      <c r="A109" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3" ht="16.5">
+      <c r="A110" s="5"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" ht="16.5">
+      <c r="A111" s="5"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" ht="16.5">
+      <c r="A112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="16.5">
+      <c r="A113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" ht="16.5">
+      <c r="A114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5">
+      <c r="A115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" ht="16.5">
+      <c r="A116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" ht="16.5">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5">
+      <c r="A118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" ht="16.5">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" ht="16.5">
+      <c r="A120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" ht="16.5">
+      <c r="A121" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" ht="16.5">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5">
+      <c r="A123" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5">
+      <c r="A124" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5">
+      <c r="A125" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5">
+      <c r="A126" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5">
+      <c r="A127" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5">
+      <c r="A128" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5">
+      <c r="A129" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5">
+      <c r="A130" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5">
+      <c r="A131" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5">
+      <c r="A132" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5">
+      <c r="A133" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5">
+      <c r="A134" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5">
+      <c r="A135" s="5"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3" ht="16.5">
+      <c r="A136" s="5"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3" ht="16.5">
+      <c r="A137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" ht="16.5">
+      <c r="A138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" ht="16.5">
+      <c r="A139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5">
+      <c r="A140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" ht="16.5">
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" ht="16.5">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5">
+      <c r="A143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" ht="16.5">
+      <c r="A144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" ht="16.5">
+      <c r="A145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" ht="16.5">
+      <c r="A146" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" ht="16.5">
+      <c r="A147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5">
+      <c r="A148" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3" ht="16.5">
+      <c r="A149" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="33">
+      <c r="A150" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5">
+      <c r="A151" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5">
+      <c r="A152" s="5"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3" ht="16.5">
+      <c r="A153" s="5"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="33">
+      <c r="A28" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
+      <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="33">
+      <c r="A42" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
+      <c r="A43" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="33">
+      <c r="A44" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
+      <c r="A45" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.5">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="16.5">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.5">
+      <c r="A58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="16.5">
+      <c r="A59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="16.5">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5">
+      <c r="A61" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登陆界面" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="349">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,34 +72,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pr0ber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(未进行，进行，结束)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1，2，3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2020.08.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pr0ber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(未进行，进行，结束)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1，2，3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.08.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.空账号登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.点击窗帘、零剪、其他栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.点击商品图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1417,6 +1409,14 @@
   </si>
   <si>
     <t>功能尚未完善实装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击窗帘、其他栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1850,19 +1850,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1886,10 +1886,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -1905,7 +1905,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1914,16 +1914,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -1940,68 +1940,68 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2018,19 +2018,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -2081,16 +2081,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -2107,69 +2107,69 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -2207,19 +2207,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -2243,10 +2243,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2261,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2270,9 +2270,18 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -2287,26 +2296,35 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2314,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -2323,19 +2341,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2343,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2359,10 +2377,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2377,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2386,16 +2404,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -2412,26 +2430,35 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -2469,17 +2496,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2487,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -2503,10 +2530,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2521,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2530,13 +2557,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2562,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2576,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -2585,19 +2612,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
@@ -2605,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -2621,10 +2648,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
@@ -2639,7 +2666,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2648,16 +2675,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5">
@@ -2673,12 +2700,14 @@
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="5"/>
@@ -2695,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2704,19 +2733,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5">
@@ -2724,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -2740,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5">
@@ -2758,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -2767,16 +2796,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5">
@@ -2792,12 +2821,14 @@
     </row>
     <row r="26" spans="1:3" ht="16.5">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="16.5">
       <c r="A27" s="2"/>
@@ -2858,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -2867,19 +2898,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
@@ -2887,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -2903,10 +2934,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
@@ -2921,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2930,13 +2961,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3027,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3043,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -3052,19 +3083,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
@@ -3072,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -3088,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
@@ -3106,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -3115,16 +3146,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -3141,79 +3172,79 @@
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
@@ -3231,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -3240,19 +3271,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5">
@@ -3260,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -3276,10 +3307,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5">
@@ -3294,7 +3325,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -3303,16 +3334,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -3329,101 +3360,101 @@
     </row>
     <row r="32" spans="1:3" ht="16.5">
       <c r="A32" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="C35" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5">
@@ -3436,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -3445,19 +3476,19 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="16.5">
       <c r="A45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5">
@@ -3465,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -3481,10 +3512,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5">
@@ -3499,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -3508,16 +3539,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -3534,90 +3565,90 @@
     </row>
     <row r="54" spans="1:3" ht="16.5">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5">
       <c r="A55" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5">
       <c r="A56" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5">
       <c r="A57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5">
       <c r="A58" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5">
       <c r="A59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5">
       <c r="A60" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5">
@@ -3631,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -3640,19 +3671,19 @@
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
@@ -3660,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -3676,10 +3707,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
@@ -3694,7 +3725,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -3703,16 +3734,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -3729,35 +3760,35 @@
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5">
       <c r="A76" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
       <c r="A77" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5">
@@ -3791,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -3800,19 +3831,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
@@ -3820,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -3836,10 +3867,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
@@ -3854,7 +3885,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -3863,16 +3894,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -3889,79 +3920,79 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A14" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" ht="16.5">
       <c r="A16" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5">
@@ -4020,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -4029,19 +4060,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
@@ -4049,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4065,10 +4096,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
@@ -4083,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -4092,16 +4123,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -4118,64 +4149,64 @@
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
@@ -4188,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -4197,19 +4228,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5">
@@ -4217,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -4233,10 +4264,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5">
@@ -4251,7 +4282,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -4260,16 +4291,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="16.5">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -4286,135 +4317,135 @@
     </row>
     <row r="31" spans="1:3" ht="16.5">
       <c r="A31" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="16.5">
       <c r="A32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5">
       <c r="A41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5">
       <c r="A42" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5">
       <c r="A43" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4434,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -4443,19 +4474,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="16.5">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5">
@@ -4463,7 +4494,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -4479,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5">
@@ -4497,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -4506,16 +4537,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="16.5">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -4532,53 +4563,53 @@
     </row>
     <row r="57" spans="1:3" ht="16.5">
       <c r="A57" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="16.5">
       <c r="A58" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="40.5">
       <c r="A59" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="27">
       <c r="A60" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5">
@@ -4596,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -4605,19 +4636,19 @@
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
@@ -4625,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -4641,10 +4672,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
@@ -4659,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -4668,16 +4699,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -4694,53 +4725,53 @@
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" ht="16.5">
       <c r="A76" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
       <c r="A77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5">
       <c r="A78" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5">
       <c r="A79" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5">
@@ -4758,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -4767,19 +4798,19 @@
         <v>1</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" ht="16.5">
       <c r="A84" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5">
@@ -4787,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -4803,10 +4834,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5">
@@ -4821,7 +4852,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3"/>
     </row>
@@ -4830,16 +4861,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" ht="16.5">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C91" s="3"/>
     </row>
@@ -4856,184 +4887,184 @@
     </row>
     <row r="93" spans="1:3" ht="16.5">
       <c r="A93" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5">
       <c r="A94" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5">
       <c r="A95" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5">
       <c r="A96" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.5">
       <c r="A97" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5">
       <c r="A98" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5">
       <c r="A99" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5">
       <c r="A100" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="C100" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5">
       <c r="A101" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="33">
       <c r="A102" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16.5">
       <c r="A103" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5">
       <c r="A104" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="33">
       <c r="A105" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5">
       <c r="A106" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5">
       <c r="A107" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.5">
       <c r="A108" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:3" ht="16.5">
       <c r="A109" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C109" s="7"/>
     </row>
@@ -5052,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C112" s="3"/>
     </row>
@@ -5061,19 +5092,19 @@
         <v>1</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" ht="16.5">
       <c r="A114" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5">
@@ -5081,7 +5112,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C115" s="3"/>
     </row>
@@ -5097,10 +5128,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16.5">
@@ -5115,7 +5146,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" s="3"/>
     </row>
@@ -5124,16 +5155,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" ht="16.5">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C121" s="3"/>
     </row>
@@ -5150,134 +5181,134 @@
     </row>
     <row r="123" spans="1:3" ht="16.5">
       <c r="A123" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5">
       <c r="A124" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5">
       <c r="A125" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.5">
       <c r="A126" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="C126" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5">
       <c r="A127" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5">
       <c r="A128" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5">
       <c r="A129" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5">
       <c r="A130" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5">
       <c r="A131" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5">
       <c r="A132" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5">
       <c r="A133" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5">
       <c r="A134" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5">
@@ -5295,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C137" s="3"/>
     </row>
@@ -5304,19 +5335,19 @@
         <v>1</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" ht="16.5">
       <c r="A139" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5">
@@ -5324,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C140" s="3"/>
     </row>
@@ -5340,10 +5371,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5">
@@ -5358,7 +5389,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" s="3"/>
     </row>
@@ -5367,16 +5398,16 @@
         <v>5</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" ht="16.5">
       <c r="A146" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C146" s="3"/>
     </row>
@@ -5393,42 +5424,42 @@
     </row>
     <row r="148" spans="1:3" ht="16.5">
       <c r="A148" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="1:3" ht="16.5">
       <c r="A149" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="C149" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="33">
       <c r="A150" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="C150" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5">
       <c r="A151" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5">
@@ -5452,8 +5483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5468,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -5477,19 +5508,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
@@ -5497,7 +5528,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -5513,10 +5544,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
@@ -5531,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -5540,16 +5571,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -5566,24 +5597,24 @@
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
@@ -5601,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -5610,19 +5641,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
@@ -5630,7 +5661,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -5646,10 +5677,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5">
@@ -5664,7 +5695,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -5673,16 +5704,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -5699,24 +5730,24 @@
     </row>
     <row r="27" spans="1:3" ht="16.5">
       <c r="A27" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33">
       <c r="A28" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5">
@@ -5734,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -5743,19 +5774,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5">
@@ -5763,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -5779,10 +5810,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
@@ -5797,7 +5828,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -5806,16 +5837,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -5832,65 +5863,65 @@
     </row>
     <row r="42" spans="1:3" ht="33">
       <c r="A42" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5">
       <c r="A43" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="33">
       <c r="A44" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5">
       <c r="A45" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5">
       <c r="A46" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5">
       <c r="A47" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C47" s="7"/>
     </row>
@@ -5909,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -5918,19 +5949,19 @@
         <v>1</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5">
@@ -5938,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -5954,10 +5985,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5">
@@ -5972,7 +6003,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3"/>
     </row>
@@ -5981,16 +6012,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="16.5">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -6007,13 +6038,13 @@
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
